--- a/최종결과/최종결과 및 변동순위.xlsx
+++ b/최종결과/최종결과 및 변동순위.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13995" windowHeight="12345"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13995" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="가채점" sheetId="1" r:id="rId1"/>
@@ -2284,8 +2284,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2428,7 +2428,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2472,7 +2472,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2516,7 +2516,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2560,7 +2560,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2604,7 +2604,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2648,7 +2648,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2692,7 +2692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2736,7 +2736,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2780,7 +2780,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2824,7 +2824,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2868,7 +2868,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2912,7 +2912,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2956,7 +2956,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3000,7 +3000,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3044,7 +3044,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3088,7 +3088,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3132,7 +3132,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3176,7 +3176,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3220,7 +3220,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3264,7 +3264,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3308,7 +3308,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3352,7 +3352,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3396,7 +3396,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3440,7 +3440,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3484,7 +3484,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3528,7 +3528,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3572,7 +3572,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3621,7 +3621,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3665,7 +3665,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3709,7 +3709,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3753,7 +3753,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3797,7 +3797,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3841,7 +3841,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3885,7 +3885,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3929,7 +3929,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3973,7 +3973,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4017,7 +4017,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4061,7 +4061,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4105,7 +4105,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4149,7 +4149,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4193,7 +4193,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4237,7 +4237,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4281,7 +4281,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4325,7 +4325,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4369,7 +4369,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4413,7 +4413,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4457,7 +4457,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4501,7 +4501,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4545,7 +4545,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4589,7 +4589,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4633,7 +4633,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4677,7 +4677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4721,7 +4721,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4765,7 +4765,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4809,7 +4809,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4853,7 +4853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4897,7 +4897,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4941,7 +4941,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4985,7 +4985,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5029,7 +5029,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5073,7 +5073,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5117,7 +5117,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5161,7 +5161,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5205,7 +5205,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5249,7 +5249,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5293,7 +5293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5337,7 +5337,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5381,7 +5381,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5425,7 +5425,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5469,7 +5469,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5513,7 +5513,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5557,7 +5557,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5601,7 +5601,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5645,7 +5645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5689,7 +5689,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5733,7 +5733,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5777,7 +5777,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5821,7 +5821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5865,7 +5865,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5909,7 +5909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5953,7 +5953,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5997,7 +5997,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6041,7 +6041,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6085,7 +6085,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6129,7 +6129,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6173,7 +6173,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6217,7 +6217,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6261,7 +6261,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6305,7 +6305,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6349,7 +6349,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6393,7 +6393,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6437,7 +6437,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6481,7 +6481,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6525,7 +6525,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6569,7 +6569,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6613,7 +6613,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6657,7 +6657,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6701,7 +6701,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6745,7 +6745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6789,7 +6789,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6833,7 +6833,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6877,7 +6877,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6921,7 +6921,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6965,7 +6965,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7009,7 +7009,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7053,7 +7053,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7097,7 +7097,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7141,7 +7141,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7185,7 +7185,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7229,7 +7229,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7273,7 +7273,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7317,7 +7317,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7361,7 +7361,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7405,7 +7405,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7449,7 +7449,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7493,7 +7493,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7537,7 +7537,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7581,7 +7581,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7625,7 +7625,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7669,7 +7669,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7713,7 +7713,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7757,7 +7757,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7801,7 +7801,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7845,7 +7845,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7889,7 +7889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7933,7 +7933,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7977,7 +7977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8021,7 +8021,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8065,7 +8065,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8154,7 +8154,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8189,7 +8188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8365,14 +8363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
@@ -8383,7 +8381,7 @@
     <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8412,7 +8410,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -8478,7 +8476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -8511,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -8544,7 +8542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8577,7 +8575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -8610,7 +8608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -8643,7 +8641,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -8676,7 +8674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -8709,7 +8707,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -8742,7 +8740,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -8775,7 +8773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -8808,7 +8806,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -8841,7 +8839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -8874,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -8907,7 +8905,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -8940,7 +8938,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -8973,7 +8971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -9006,7 +9004,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -9039,7 +9037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>249</v>
       </c>
@@ -9072,7 +9070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -9105,7 +9103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -9138,7 +9136,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -9171,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -9204,7 +9202,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -9237,7 +9235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -9270,7 +9268,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -9303,7 +9301,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -9336,7 +9334,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -9402,7 +9400,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -9435,7 +9433,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -9468,7 +9466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -9501,7 +9499,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -9534,7 +9532,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -9567,7 +9565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="3" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
@@ -9600,7 +9598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -9633,7 +9631,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -9666,7 +9664,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -9699,7 +9697,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -9732,7 +9730,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -9765,7 +9763,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -9798,7 +9796,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -9831,7 +9829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -9864,7 +9862,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -9897,7 +9895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -9930,7 +9928,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
@@ -9963,7 +9961,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
@@ -9996,7 +9994,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -10029,7 +10027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -10062,7 +10060,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -10095,7 +10093,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -10128,7 +10126,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
@@ -10161,7 +10159,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
@@ -10194,7 +10192,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
@@ -10227,7 +10225,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
@@ -10260,7 +10258,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -10293,7 +10291,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
@@ -10326,7 +10324,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -10359,7 +10357,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
@@ -10392,7 +10390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
@@ -10425,7 +10423,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -10458,7 +10456,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>129</v>
       </c>
@@ -10491,7 +10489,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
@@ -10524,7 +10522,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -10557,7 +10555,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
@@ -10590,7 +10588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -10637,19 +10635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E353"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
@@ -11312,24 +11312,24 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" s="3" customFormat="1">
+      <c r="A40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>52</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>0.34832221419999998</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>117</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>157</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>162</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>164</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>166</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>168</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>172</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>174</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>177</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>179</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>181</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>183</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>185</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>187</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>191</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>193</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>195</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>197</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>199</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>201</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>203</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>205</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>207</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>209</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>211</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>215</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>217</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>219</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>221</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>223</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>225</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>227</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>229</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>231</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>233</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>235</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>237</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>239</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>241</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>243</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>245</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>250</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>252</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>254</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>256</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>258</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>260</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>67</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>271</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>273</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>275</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>277</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>279</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>281</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>283</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>285</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>287</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>289</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>291</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>293</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>295</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>297</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>299</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>301</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>303</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
         <v>305</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
         <v>307</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>309</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>311</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>313</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>315</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>317</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
         <v>319</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
         <v>123</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
         <v>322</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
         <v>324</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
         <v>326</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
         <v>328</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
         <v>330</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
         <v>332</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
         <v>334</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
         <v>336</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
         <v>338</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
         <v>340</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
         <v>342</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
         <v>344</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
         <v>346</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
         <v>348</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
         <v>350</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
         <v>352</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>1</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
         <v>355</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
         <v>357</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
         <v>359</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
         <v>361</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
         <v>42</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
         <v>364</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
         <v>366</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>368</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
         <v>370</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
         <v>372</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
         <v>374</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>376</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>378</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
         <v>380</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
         <v>382</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
         <v>384</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
         <v>386</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
         <v>388</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
         <v>390</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
         <v>392</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
         <v>394</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
         <v>93</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
         <v>397</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
         <v>399</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
         <v>401</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
         <v>403</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
         <v>405</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
         <v>407</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
         <v>409</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
         <v>411</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
         <v>413</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
         <v>415</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
         <v>417</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
         <v>419</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
         <v>421</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
         <v>423</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
         <v>105</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
         <v>426</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
         <v>428</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
         <v>430</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
         <v>432</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
         <v>434</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
         <v>436</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>438</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
         <v>440</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
         <v>442</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
         <v>444</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>446</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
         <v>448</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
         <v>450</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
         <v>452</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
         <v>454</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
         <v>456</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
         <v>458</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
         <v>460</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
         <v>462</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
         <v>464</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
         <v>466</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
         <v>468</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
         <v>470</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
         <v>472</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
         <v>474</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
         <v>476</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
         <v>478</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
         <v>480</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
         <v>482</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
         <v>484</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
         <v>486</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
         <v>488</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
         <v>490</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
         <v>492</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
         <v>494</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
         <v>496</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
         <v>498</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
         <v>500</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
         <v>502</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
         <v>504</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
         <v>506</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
         <v>69</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
         <v>509</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
         <v>511</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
         <v>513</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
         <v>515</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
         <v>517</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
         <v>519</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
         <v>521</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
         <v>523</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
         <v>525</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
         <v>26</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
         <v>528</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
         <v>530</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
         <v>532</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
         <v>534</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
         <v>536</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
         <v>538</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
         <v>540</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
         <v>542</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
         <v>544</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
         <v>546</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
         <v>548</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
         <v>550</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
         <v>552</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
         <v>554</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
         <v>556</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
         <v>558</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
         <v>560</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
         <v>562</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
         <v>564</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
         <v>566</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
         <v>568</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
         <v>109</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
         <v>571</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
         <v>573</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
         <v>575</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
         <v>577</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
         <v>579</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
         <v>581</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
         <v>583</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
         <v>585</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
         <v>125</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
         <v>588</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
         <v>590</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
         <v>592</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
         <v>594</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
         <v>596</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
         <v>598</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
         <v>600</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
         <v>602</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
         <v>604</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
         <v>606</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
         <v>608</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
         <v>610</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
         <v>612</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
         <v>614</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
         <v>616</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
         <v>618</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
         <v>620</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
         <v>622</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
         <v>624</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
         <v>626</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
         <v>628</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
         <v>630</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
         <v>632</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
         <v>634</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
         <v>636</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
         <v>638</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
         <v>65</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
         <v>641</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
         <v>643</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
         <v>645</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
         <v>647</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
         <v>649</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
         <v>651</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
         <v>653</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
         <v>655</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
         <v>657</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
         <v>659</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
         <v>661</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
         <v>663</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
         <v>665</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
         <v>667</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
         <v>669</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
         <v>671</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
         <v>673</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
         <v>675</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
         <v>677</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
         <v>679</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
         <v>681</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
         <v>683</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
         <v>91</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
         <v>686</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
         <v>688</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
         <v>690</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
         <v>692</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
         <v>121</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
         <v>695</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
         <v>697</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
         <v>699</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
         <v>701</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
         <v>703</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
         <v>705</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
         <v>64</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
         <v>708</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
         <v>710</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
         <v>712</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
         <v>714</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
         <v>716</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
         <v>718</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
         <v>111</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
         <v>721</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
         <v>137</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
         <v>724</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
         <v>726</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
         <v>728</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
         <v>730</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
         <v>732</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
         <v>734</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
         <v>736</v>
       </c>
